--- a/stock_predictor_ai/data/company_sentiment_ready/MPC_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/MPC_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3524"/>
+  <dimension ref="A1:B3578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28633,6 +28633,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3525">
+      <c r="A3525" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B3525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B3526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B3527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B3528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B3529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B3530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B3532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B3533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B3534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B3536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B3537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B3538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B3540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B3541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B3542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B3543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B3544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B3545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B3546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B3547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B3548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B3549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B3550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B3551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B3552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B3553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B3554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B3555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B3556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B3557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B3558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B3559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B3560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B3561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B3562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B3563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B3564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B3565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B3566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B3567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B3568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B3570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B3571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B3572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B3573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B3574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B3575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B3576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B3577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B3578" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
